--- a/data/EditLead.xlsx
+++ b/data/EditLead.xlsx
@@ -14,18 +14,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>RenaultNissan</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Rohithkumar</t>
   </si>
   <si>
-    <t>cname</t>
-  </si>
-  <si>
     <t>fname</t>
+  </si>
+  <si>
+    <t>Uname</t>
+  </si>
+  <si>
+    <t>pwd</t>
+  </si>
+  <si>
+    <t>DemoSalesManager</t>
+  </si>
+  <si>
+    <t>crmsfa</t>
+  </si>
+  <si>
+    <t>loname</t>
+  </si>
+  <si>
+    <t>Kumar</t>
   </si>
 </sst>
 </file>
@@ -374,29 +386,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
